--- a/instance_2.xlsx
+++ b/instance_2.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\assets_v_seawater\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC2B5E-69DB-4294-87C7-BE6D2B6866E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="1" r:id="rId1"/>
     <sheet name="Assets" sheetId="2" r:id="rId2"/>
     <sheet name="RegionLevel" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -45,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,12 +69,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -98,22 +116,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -155,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,9 +216,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,6 +268,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,14 +461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -419,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -427,7 +492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -441,14 +506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -459,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -470,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -481,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -498,15 +563,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>9</v>
       </c>
       <c r="B1">
@@ -521,10 +588,10 @@
       <c r="E1">
         <v>5</v>
       </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
+      <c r="F1" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2">
         <v>1</v>
       </c>
       <c r="H1">
@@ -542,13 +609,13 @@
       <c r="L1">
         <v>9</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>1</v>
       </c>
       <c r="N1">
         <v>6</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="2">
         <v>2</v>
       </c>
       <c r="P1">
@@ -557,7 +624,7 @@
       <c r="Q1">
         <v>6</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="2">
         <v>1</v>
       </c>
       <c r="S1">
@@ -567,14 +634,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2">
@@ -589,19 +656,19 @@
       <c r="G2">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
         <v>2</v>
       </c>
       <c r="M2">
@@ -629,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -691,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -716,10 +783,10 @@
       <c r="H4">
         <v>9</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
         <v>2</v>
       </c>
       <c r="K4">
@@ -740,7 +807,7 @@
       <c r="P4">
         <v>8</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>1</v>
       </c>
       <c r="R4">
@@ -749,15 +816,15 @@
       <c r="S4">
         <v>7</v>
       </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="T4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5">
@@ -772,7 +839,7 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5">
@@ -793,7 +860,7 @@
       <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>1</v>
       </c>
       <c r="O5">
@@ -811,11 +878,11 @@
       <c r="S5">
         <v>5</v>
       </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="T5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -834,16 +901,16 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
         <v>2</v>
       </c>
       <c r="K6">
@@ -864,7 +931,7 @@
       <c r="P6">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>1</v>
       </c>
       <c r="R6">
@@ -877,14 +944,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7">
@@ -899,7 +966,7 @@
       <c r="G7">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>2</v>
       </c>
       <c r="I7">
@@ -923,7 +990,7 @@
       <c r="O7">
         <v>5</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>2</v>
       </c>
       <c r="Q7">
@@ -939,8 +1006,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8">
@@ -970,7 +1037,7 @@
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>2</v>
       </c>
       <c r="L8">
@@ -985,39 +1052,39 @@
       <c r="O8">
         <v>7</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>2</v>
       </c>
       <c r="Q8">
         <v>2</v>
       </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9">
@@ -1032,7 +1099,7 @@
       <c r="J9">
         <v>6</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>2</v>
       </c>
       <c r="L9">
@@ -1044,7 +1111,7 @@
       <c r="N9">
         <v>8</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>1</v>
       </c>
       <c r="P9">
@@ -1063,11 +1130,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10">
@@ -1082,7 +1149,7 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10">
@@ -1091,7 +1158,7 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10">
@@ -1100,7 +1167,7 @@
       <c r="L10">
         <v>9</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>1</v>
       </c>
       <c r="N10">
@@ -1118,30 +1185,30 @@
       <c r="R10">
         <v>5</v>
       </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11">
@@ -1153,7 +1220,7 @@
       <c r="I11">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11">
@@ -1165,7 +1232,7 @@
       <c r="M11">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>2</v>
       </c>
       <c r="O11">
@@ -1187,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1197,7 +1264,7 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
       <c r="E12">
@@ -1215,13 +1282,13 @@
       <c r="I12">
         <v>8</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>1</v>
       </c>
       <c r="M12">
@@ -1230,7 +1297,7 @@
       <c r="N12">
         <v>7</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>2</v>
       </c>
       <c r="P12">
@@ -1249,14 +1316,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13">
@@ -1271,7 +1338,7 @@
       <c r="G13">
         <v>9</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>2</v>
       </c>
       <c r="I13">
@@ -1283,7 +1350,7 @@
       <c r="K13">
         <v>6</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>1</v>
       </c>
       <c r="M13">
@@ -1311,17 +1378,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>2</v>
       </c>
       <c r="E14">
@@ -1345,7 +1412,7 @@
       <c r="K14">
         <v>6</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>1</v>
       </c>
       <c r="M14">
@@ -1366,14 +1433,14 @@
       <c r="R14">
         <v>3</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="2">
         <v>1</v>
       </c>
       <c r="T14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1386,13 +1453,13 @@
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
       <c r="F15">
         <v>9</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15">
@@ -1404,7 +1471,7 @@
       <c r="J15">
         <v>7</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15">
@@ -1431,15 +1498,15 @@
       <c r="S15">
         <v>6</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>7</v>
       </c>
       <c r="C16">
@@ -1448,16 +1515,16 @@
       <c r="D16">
         <v>7</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
         <v>2</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>3</v>
       </c>
       <c r="I16">
@@ -1475,7 +1542,7 @@
       <c r="M16">
         <v>4</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>2</v>
       </c>
       <c r="O16">
@@ -1490,14 +1557,14 @@
       <c r="R16">
         <v>9</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1513,7 +1580,7 @@
       <c r="E17">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17">
@@ -1522,7 +1589,7 @@
       <c r="H17">
         <v>8</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17">
@@ -1531,7 +1598,7 @@
       <c r="K17">
         <v>3</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>1</v>
       </c>
       <c r="M17">
@@ -1559,11 +1626,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18">
@@ -1584,16 +1651,16 @@
       <c r="H18">
         <v>7</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
         <v>2</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>2</v>
       </c>
       <c r="M18">
@@ -1602,10 +1669,10 @@
       <c r="N18">
         <v>8</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
         <v>2</v>
       </c>
       <c r="Q18">
@@ -1621,17 +1688,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
         <v>2</v>
       </c>
       <c r="E19">
@@ -1652,7 +1719,7 @@
       <c r="J19">
         <v>9</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>1</v>
       </c>
       <c r="L19">
@@ -1661,13 +1728,13 @@
       <c r="M19">
         <v>7</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <v>2</v>
       </c>
       <c r="O19">
         <v>9</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19">
@@ -1683,7 +1750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1693,13 +1760,13 @@
       <c r="C20">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>2</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>2</v>
       </c>
       <c r="G20">
@@ -1708,7 +1775,7 @@
       <c r="H20">
         <v>6</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>2</v>
       </c>
       <c r="J20">
@@ -1720,7 +1787,7 @@
       <c r="L20">
         <v>4</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>2</v>
       </c>
       <c r="N20">
